--- a/FP.xlsx
+++ b/FP.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/wiscasta_bancolombia_com_co/Documents/Otros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmerinomora/Documents/repos/project_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{A700C484-2744-5B49-841F-3DE7CB236AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F350DA-4B8B-4DDD-9CB3-20DF6417EC06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E030D5-EFB1-C74E-999F-4A7CAD7BE856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="884" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fijos" sheetId="138" r:id="rId1"/>
     <sheet name="Deudas urg" sheetId="169" r:id="rId2"/>
     <sheet name="proyec 2023-2" sheetId="170" r:id="rId3"/>
+    <sheet name="iPhone 16 pro" sheetId="171" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fijos!$G$11:$J$28</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>Movistar money</t>
   </si>
@@ -189,9 +190,6 @@
     <t>Cuenta</t>
   </si>
   <si>
-    <t>TC Rappi (12-ene)</t>
-  </si>
-  <si>
     <t>act el 15</t>
   </si>
   <si>
@@ -208,6 +206,117 @@
   </si>
   <si>
     <t>Abono prestamo mami</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Adicionales</t>
+  </si>
+  <si>
+    <t>PhoneKilla</t>
+  </si>
+  <si>
+    <t>Top Case Bquilla</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Case, vidrio templado</t>
+  </si>
+  <si>
+    <t>iPhone Cell Quilla</t>
+  </si>
+  <si>
+    <t>Cra 57 # 99a – 65 Of. 405 Torre Sur Atlántico</t>
+  </si>
+  <si>
+    <t>Cll 93 # 43 - 135</t>
+  </si>
+  <si>
+    <t>iPhone al por mayor</t>
+  </si>
+  <si>
+    <t>Cra 46 # 86 - 62 piso 1 local 3</t>
+  </si>
+  <si>
+    <t>Cll 93 # 46 - 26 local 1</t>
+  </si>
+  <si>
+    <t>Cellzone Store</t>
+  </si>
+  <si>
+    <t>iPhoneBQ</t>
+  </si>
+  <si>
+    <t>iPhone City Barranquilla</t>
+  </si>
+  <si>
+    <t>iPhone Store Barranquilla</t>
+  </si>
+  <si>
+    <t>Cra 53 # 76 - 239 local 115A</t>
+  </si>
+  <si>
+    <t>Cll 91 # 46 esquina</t>
+  </si>
+  <si>
+    <t>iPhone Quilla</t>
+  </si>
+  <si>
+    <t>Cll 84 # 45 esquina local 2 y 3</t>
+  </si>
+  <si>
+    <t>Cra 47 # 93 - 39 local 1</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iphonecitybarranquilla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/phonequilla_store/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/phonekilla_/</t>
+  </si>
+  <si>
+    <t>Cra 47 # 93 - 39 local n1</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iphonecelquilla/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/topcase_baq/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/phonebq_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iphonealpormayor/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cellzonestoree/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iphonesstorebarranquilla/</t>
+  </si>
+  <si>
+    <t>TC Rappi (10-ene)</t>
+  </si>
+  <si>
+    <t>Mobilestore 84</t>
+  </si>
+  <si>
+    <t>Cll 84 # 67 - 06</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mobilestore84/</t>
   </si>
 </sst>
 </file>
@@ -221,7 +330,7 @@
     <numFmt numFmtId="167" formatCode="0.00000%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,82 +386,60 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <color theme="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="8"/>
-      <name val="Calibri Light"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -654,7 +741,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -684,185 +771,207 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="24" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="30">
     <cellStyle name="Bold text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Col header" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency [0] 2" xfId="26" xr:uid="{82F61AD7-C935-624E-B6F3-8F94A8A5767D}"/>
@@ -875,6 +984,7 @@
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
@@ -1052,7 +1162,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1216,7 +1326,7 @@
                   <c:v>99686947.980000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89196393</c:v>
+                  <c:v>71126393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,233 +2399,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF5BD5-D5C1-604E-91D5-89DBC9CAD258}">
   <dimension ref="A3:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="71">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36">
         <v>2024</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="K4" s="29"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:17" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="D6" s="59" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="35"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="B6" s="35"/>
+      <c r="D6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="17" t="s">
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="35"/>
+      <c r="C7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="47">
         <v>2424380</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="48">
         <f>SUMIF(H12:H27,15,J12:J27)</f>
-        <v>2957604.1</v>
-      </c>
-      <c r="F7" s="32">
+        <v>3022122.1</v>
+      </c>
+      <c r="F7" s="49">
         <f>D7-SUMIF(H12:H27,15,J12:J27)</f>
-        <v>-533224.10000000009</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="17" t="s">
+        <v>-597742.10000000009</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="35"/>
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="47">
         <v>2424380</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="51">
         <f>SUMIF(H12:H27,30,J12:J27)</f>
-        <v>2381607.73</v>
-      </c>
-      <c r="F8" s="32">
+        <v>2393705.2199999997</v>
+      </c>
+      <c r="F8" s="49">
         <f>D8-SUMIF(H12:H27,30,J12:J27)</f>
-        <v>42772.270000000019</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="60" t="s">
+        <v>30674.780000000261</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="35"/>
+      <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <f>D8+D7</f>
         <v>4848760</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <f>F8+F7</f>
-        <v>-490451.83000000007</v>
-      </c>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="E10" s="3"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="G11" s="33" t="s">
+        <v>-567067.31999999983</v>
+      </c>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B10" s="35"/>
+      <c r="E10" s="4"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="35"/>
+      <c r="G11" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="G12" s="21" t="s">
+      <c r="K11" s="39"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12" s="35"/>
+      <c r="G12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="56">
         <v>1500000</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="57">
         <f t="shared" ref="K12:K27" si="0">J12/$J$28</f>
-        <v>0.28094034246249411</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="70" t="s">
+        <v>0.27696599455094884</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="G13" s="21" t="s">
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B13" s="35"/>
+      <c r="G13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>30</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="56">
         <v>573161</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="57">
         <f t="shared" si="0"/>
-        <v>0.10734936508409706</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="54" t="s">
+        <v>0.1058307376018776</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="54" t="s">
+      <c r="Q13" s="59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="G14" s="21" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="35"/>
+      <c r="G14" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="56">
         <v>469369.16</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="57">
         <f t="shared" si="0"/>
-        <v>8.7909821701155466E-2</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="36">
+        <v>8.6666197473962286E-2</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="60">
         <v>8500</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -2525,28 +2635,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="G15" s="21" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="35"/>
+      <c r="G15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="7">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="56">
         <v>426392</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="57">
         <f t="shared" si="0"/>
-        <v>7.9860476335511868E-2</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="36">
+        <v>7.8730722899045452E-2</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="60">
         <v>10490</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2556,28 +2666,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="G16" s="21" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="G16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="56">
         <v>418379.1</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="57">
         <f t="shared" si="0"/>
-        <v>7.8359711755433381E-2</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="36">
+        <v>7.7251189020553918E-2</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="60">
         <v>32750</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2587,28 +2697,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="G17" s="21" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="G17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>30</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="34">
-        <v>391973.01</v>
-      </c>
-      <c r="K17" s="35">
+      <c r="J17" s="56">
+        <v>404070.5</v>
+      </c>
+      <c r="K17" s="57">
         <f t="shared" si="0"/>
-        <v>7.3414021110303096E-2</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="36">
+        <v>7.460919193413279E-2</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="60">
         <f>46900-15000</f>
         <v>31900</v>
       </c>
@@ -2619,28 +2729,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="D18" s="37"/>
-      <c r="G18" s="21" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="D18" s="61"/>
+      <c r="G18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>30</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="56">
         <v>385849.56</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="57">
         <f t="shared" si="0"/>
-        <v>7.2267138350268448E-2</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="O18" s="36">
+        <v>7.1244804754964003E-2</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="O18" s="60">
         <v>20000</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2650,28 +2760,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="G19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="G19" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="34">
-        <v>338652</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="56">
+        <v>338699</v>
+      </c>
+      <c r="K19" s="57">
         <f t="shared" si="0"/>
-        <v>6.3427339237072375E-2</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="36">
+        <v>6.253873692560788E-2</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="60">
         <v>24900</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -2681,954 +2791,954 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="E20" s="16"/>
-      <c r="G20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="E20" s="22"/>
+      <c r="G20" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="56">
+        <v>338652</v>
+      </c>
+      <c r="K20" s="57">
+        <f t="shared" si="0"/>
+        <v>6.2530058657778623E-2</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="G21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="34">
-        <v>274181</v>
-      </c>
-      <c r="K20" s="35">
+      <c r="J21" s="56">
+        <v>248312</v>
+      </c>
+      <c r="K21" s="57">
         <f t="shared" si="0"/>
-        <v>5.1352336024472735E-2</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="G21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="5">
+        <v>4.5849320025956805E-2</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="G22" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="7">
         <v>30</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="34">
-        <v>248312</v>
-      </c>
-      <c r="K21" s="35">
+      <c r="J22" s="56">
+        <v>184403</v>
+      </c>
+      <c r="K22" s="57">
         <f t="shared" si="0"/>
-        <v>4.6507238878364561E-2</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="G22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="5">
+        <v>3.4048906862119081E-2</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="G23" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="7">
         <v>30</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="34">
-        <v>184403</v>
-      </c>
-      <c r="K22" s="35">
-        <f t="shared" si="0"/>
-        <v>3.4537494647407539E-2</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="G23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="5">
-        <v>30</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="56">
         <f>SUM($O$14:$O$20)</f>
         <v>128540</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="57">
         <f t="shared" si="0"/>
-        <v>2.4074714413419331E-2</v>
-      </c>
-      <c r="O23" s="36"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35">
+        <v>2.3734139293052642E-2</v>
+      </c>
+      <c r="O23" s="60"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="36"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35">
+      <c r="O24" s="60"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="36"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35">
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="36"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35">
+      <c r="O26" s="60"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="36"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
+      <c r="O27" s="60"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
       <c r="G28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="62">
         <f>SUM(J12:J27)</f>
-        <v>5339211.83</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="O28" s="36"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41" t="s">
+        <v>5415827.3200000003</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="O28" s="60"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="35"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B30" s="35"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="35"/>
+      <c r="K31" s="39"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42">
+      <c r="I32" s="65"/>
+      <c r="J32" s="66">
         <f>D9-J28</f>
-        <v>-490451.83000000007</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="38"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="38"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D35" s="44"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="38"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="38"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C38" s="45">
+        <v>-567067.3200000003</v>
+      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="62"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D35" s="68"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="62"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="62"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="62"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C38" s="69">
         <v>45350</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="69">
         <v>45382</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="69">
         <v>45412</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="69">
         <v>45443</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="69">
         <v>45473</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="69">
         <v>45504</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="69">
         <v>45535</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="69">
         <v>45565</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="69">
         <v>45595</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="69">
         <v>45626</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="69">
         <v>45656</v>
       </c>
-      <c r="N38" s="45"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="33" t="s">
+      <c r="N38" s="69"/>
+    </row>
+    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B39" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="33"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="70">
         <v>20766340</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="70">
         <v>20572804</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="70">
         <v>20596918</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="70">
         <v>20570000</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="70">
         <v>20140000</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="70">
         <v>20250000</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="70">
         <v>20170000</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="70">
         <v>20080000</v>
       </c>
-      <c r="K40" s="65">
+      <c r="K40" s="71">
         <v>20050000</v>
       </c>
-      <c r="L40" s="65">
+      <c r="L40" s="71">
         <v>19870000</v>
       </c>
-      <c r="M40" s="65">
+      <c r="M40" s="71">
         <v>19780000</v>
       </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="21" t="s">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="70">
         <v>11851059.619999999</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="70">
         <v>11341160.960000001</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="70">
         <v>11132644.26</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="70">
         <v>10900000</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="70">
         <v>10680000</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="70">
         <v>10460000</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="70">
         <v>10240000</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="70">
         <v>10000000</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="70">
         <v>9770000</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="70">
         <v>9500000</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="70">
         <v>9250000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="22">
         <v>10000000</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="70">
         <v>9680000</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="70">
         <v>9800000</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="70">
         <v>10290000</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="70">
         <v>12600000</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="70">
         <v>10500000</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="70">
         <v>10900000</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="70">
         <v>13750000</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="70">
         <v>11400000</v>
       </c>
-      <c r="K42" s="65">
+      <c r="K42" s="71">
         <v>10320000</v>
       </c>
-      <c r="L42" s="65">
+      <c r="L42" s="71">
         <v>9910000</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="70">
         <v>10300000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="4">
         <f>A42-M42</f>
         <v>-300000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="22">
         <v>11600000</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="70">
         <v>10049237</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="70">
         <v>11600000</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="70">
         <v>11760773</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="70">
         <v>10990000</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="70">
         <v>10750000</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="70">
         <v>10520000</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="70">
         <v>10290000</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="70">
         <v>10080000</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="70">
         <v>11330000</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="70">
         <v>11190000</v>
       </c>
-      <c r="M43" s="46">
-        <v>11670000</v>
-      </c>
-      <c r="N43" s="3">
-        <f t="shared" ref="N43:N45" si="1">A43-M43</f>
-        <v>-70000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="M43" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" s="4">
+        <f>A43-L43</f>
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="22">
         <v>7200000</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="70">
         <v>7246555</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="70">
         <v>7109620</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="70">
         <v>7107040</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="70">
         <v>6500000</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="70">
         <v>6350000</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="70">
         <v>6240000</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="70">
         <v>6130000</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="70">
         <v>6020000</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="70">
         <v>6430000</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="70">
         <v>6500000</v>
       </c>
-      <c r="M44" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" s="4">
         <f>A44-L44</f>
         <v>700000</v>
       </c>
-      <c r="P44" s="16"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="22">
         <v>6500000</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="70">
         <v>6494703.7800000003</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="70">
         <v>6370000</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="70">
         <v>6673872.0899999999</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="70">
         <v>5880000</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="70">
         <v>5630000</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="70">
         <v>5390000</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="70">
         <v>5160000</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="70">
         <v>6230000</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="70">
         <v>5980000</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="70">
         <v>5660000</v>
       </c>
-      <c r="M45" s="46">
-        <v>6400000</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="M45" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="4">
+        <f>A45-L45</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="22">
         <v>6120000</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="70">
         <v>4620000</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="70">
         <v>5600000</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="70">
         <v>5870000</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="70">
         <v>5730000</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="70">
         <v>5540000</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="70">
         <v>5100000</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="70">
         <v>6120000</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="70">
         <v>6120000</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="70">
         <v>6120000</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="70">
         <v>5590000</v>
       </c>
-      <c r="M46" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="M46" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="4">
         <f>A46-L46</f>
         <v>530000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="21" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="70">
         <v>3886674.68</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="70">
         <v>3666564.54</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="70">
         <v>3526852.75</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="70">
         <v>3383140.75</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="70">
         <v>3238542.87</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="70">
         <v>3073093.11</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="70">
         <v>2904606</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="70">
         <v>2731230.41</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="70">
         <v>2550568.7400000002</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="70">
         <v>2366947.98</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="70">
         <v>2176393</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="22">
         <v>3500000</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="70">
         <v>3130000</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="70">
         <v>3200000</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="70">
         <v>3500000</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="70">
         <v>3700000</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="70">
         <v>3500000</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="70">
         <v>3600000</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="70">
         <v>4050000</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="70">
         <v>3300000</v>
       </c>
-      <c r="K48" s="65">
+      <c r="K48" s="71">
         <v>3280000</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="71">
         <v>3270000</v>
       </c>
-      <c r="M48" s="65">
+      <c r="M48" s="71">
         <v>3900000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="4">
         <f>A48-M48</f>
         <v>-400000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" s="22">
         <v>3000000</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="70">
         <v>2700000</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="70">
         <v>2500000</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="70">
         <v>2400000</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="70">
         <v>2800000</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="70">
         <v>2490000</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="70">
         <v>2400000</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="70">
         <v>2210000</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="70">
         <v>2900000</v>
       </c>
-      <c r="K49" s="65">
+      <c r="K49" s="71">
         <v>2830000</v>
       </c>
-      <c r="L49" s="65">
+      <c r="L49" s="71">
         <v>2830000</v>
       </c>
-      <c r="M49" s="65">
+      <c r="M49" s="71">
         <v>2720000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="4">
         <f>A49-M49</f>
         <v>280000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="21" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+      <c r="B50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="70">
         <v>15000000</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="70">
         <v>15000000</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="70">
         <v>15000000</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="70">
         <v>15000000</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="70">
         <v>23000000</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="70">
         <v>23000000</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="70">
         <v>23000000</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="70">
         <v>23000000</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="70">
         <v>23000000</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="70">
         <v>23000000</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="70">
         <v>23000000</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="47" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B51" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="18">
-        <f t="shared" ref="C51:H51" si="2">SUM(C40:C50)</f>
+      <c r="C51" s="74">
+        <f t="shared" ref="C51:H51" si="1">SUM(C40:C50)</f>
         <v>95424570.080000013</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="74">
+        <f t="shared" si="1"/>
+        <v>96760149.500000015</v>
+      </c>
+      <c r="E51" s="74">
+        <f t="shared" si="1"/>
+        <v>97858100.099999994</v>
+      </c>
+      <c r="F51" s="74">
+        <f t="shared" si="1"/>
+        <v>98053140.75</v>
+      </c>
+      <c r="G51" s="74">
+        <f t="shared" si="1"/>
+        <v>101818542.87</v>
+      </c>
+      <c r="H51" s="74">
+        <f t="shared" si="1"/>
+        <v>100933093.11</v>
+      </c>
+      <c r="I51" s="74">
+        <f t="shared" ref="I51:J51" si="2">SUM(I40:I50)</f>
+        <v>104024606</v>
+      </c>
+      <c r="J51" s="74">
         <f t="shared" si="2"/>
-        <v>96760149.500000015</v>
-      </c>
-      <c r="E51" s="18">
-        <f t="shared" si="2"/>
-        <v>97858100.099999994</v>
-      </c>
-      <c r="F51" s="18">
-        <f t="shared" si="2"/>
-        <v>98053140.75</v>
-      </c>
-      <c r="G51" s="18">
-        <f t="shared" si="2"/>
-        <v>101818542.87</v>
-      </c>
-      <c r="H51" s="18">
-        <f t="shared" si="2"/>
-        <v>100933093.11</v>
-      </c>
-      <c r="I51" s="18">
-        <f t="shared" ref="I51:J51" si="3">SUM(I40:I50)</f>
-        <v>104024606</v>
-      </c>
-      <c r="J51" s="18">
+        <v>101861230.41</v>
+      </c>
+      <c r="K51" s="74">
+        <f t="shared" ref="K51:M51" si="3">SUM(K40:K50)</f>
+        <v>101660568.73999999</v>
+      </c>
+      <c r="L51" s="74">
         <f t="shared" si="3"/>
-        <v>101861230.41</v>
-      </c>
-      <c r="K51" s="18">
-        <f t="shared" ref="K51:M51" si="4">SUM(K40:K50)</f>
-        <v>101660568.73999999</v>
-      </c>
-      <c r="L51" s="18">
-        <f t="shared" si="4"/>
         <v>99686947.980000004</v>
       </c>
-      <c r="M51" s="18">
-        <f t="shared" si="4"/>
-        <v>89196393</v>
-      </c>
-      <c r="N51" s="53">
+      <c r="M51" s="74">
+        <f t="shared" si="3"/>
+        <v>71126393</v>
+      </c>
+      <c r="N51" s="75">
         <f>SUM(N40:N50)</f>
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C57" s="19"/>
-      <c r="D57" s="3"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C58" s="19"/>
-      <c r="D58" s="3"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C60" s="48"/>
-      <c r="D60" s="3"/>
-      <c r="F60" s="48"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C61" s="48"/>
-      <c r="D61" s="3"/>
-      <c r="F61" s="48"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C64" s="3"/>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="38"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="71">
+        <v>2060000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="55"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B53" s="55"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="4"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="46"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="74"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C57" s="76"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="76"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C58" s="76"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="76"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="F59" s="76"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C60" s="78"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C61" s="78"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B62" s="46"/>
+      <c r="C62" s="74"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="74"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C64" s="4"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="46"/>
+      <c r="C65" s="62"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C75" s="36">
         <v>2024</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="73"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C76" s="74"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-    </row>
-    <row r="77" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D77" s="59" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="D77" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="17" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C78" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="56">
+      <c r="D78" s="47">
         <f>2424380*1.09</f>
         <v>2642574.2000000002</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="48">
         <v>2980975.94</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="49">
         <f>D78-E78</f>
         <v>-338401.73999999976</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C79" s="17" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C79" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="56">
+      <c r="D79" s="47">
         <f>2424380*1.09</f>
         <v>2642574.2000000002</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="51">
         <v>2385507.73</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="49">
         <f>D79-E79</f>
         <v>257066.4700000002</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C80" s="60" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C80" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="55">
+      <c r="D80" s="53">
         <f>D79+D78</f>
         <v>5285148.4000000004</v>
       </c>
-      <c r="F80" s="55">
+      <c r="F80" s="53">
         <f>F79+F78</f>
         <v>-81335.269999999553</v>
       </c>
@@ -3686,7 +3796,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N44:N45" formula="1"/>
+    <ignoredError sqref="N44" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3699,294 +3809,294 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="24"/>
+      <c r="H1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
+        <v>1500000</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="H1" s="77" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
+        <v>488379.1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="H4" s="28">
+        <v>10000000</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="51">
-        <v>1500000</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="51">
-        <v>488379.1</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="H4" s="51">
-        <v>10000000</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="51">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
         <v>426392</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="51">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28">
         <v>338652</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="79">
-        <v>274181</v>
-      </c>
-      <c r="C7" s="80" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28">
+        <v>338699</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="79">
-        <v>391973.01</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="23">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28">
+        <v>529697.28000000003</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="30">
         <f>SUM(B3:B22)</f>
-        <v>3419577.1100000003</v>
-      </c>
-      <c r="C23" s="24" t="s">
+        <v>3621819.38</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="30">
         <f>SUM(E3:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="30">
         <f>SUM(H3:H22)</f>
         <v>10000000</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4005,25 +4115,25 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -4031,283 +4141,283 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>2424380*2</f>
         <v>4848760</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>35441.879999999997</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <f>B3*1.09</f>
         <v>5285148.4000000004</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>45627</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>45658</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>45689</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>45717</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>45748</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>45778</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9">
         <v>15</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <f>'Deudas urg'!B23</f>
-        <v>3419577.1100000003</v>
-      </c>
-      <c r="H5" s="8">
+        <v>3621819.38</v>
+      </c>
+      <c r="H5" s="10">
         <f>fijos!$E$7</f>
-        <v>2957604.1</v>
-      </c>
-      <c r="I5" s="8">
+        <v>3022122.1</v>
+      </c>
+      <c r="I5" s="10">
         <f>fijos!$E$7</f>
-        <v>2957604.1</v>
-      </c>
-      <c r="J5" s="8">
+        <v>3022122.1</v>
+      </c>
+      <c r="J5" s="10">
         <f>fijos!$E$7</f>
-        <v>2957604.1</v>
-      </c>
-      <c r="K5" s="8">
+        <v>3022122.1</v>
+      </c>
+      <c r="K5" s="10">
         <f>fijos!$E$7</f>
-        <v>2957604.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3022122.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="10">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="11">
         <v>30</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <f>fijos!$E$8</f>
-        <v>2381607.73</v>
-      </c>
-      <c r="H6" s="11">
+        <v>2393705.2199999997</v>
+      </c>
+      <c r="H6" s="12">
         <f>fijos!$E$8</f>
-        <v>2381607.73</v>
-      </c>
-      <c r="I6" s="11">
+        <v>2393705.2199999997</v>
+      </c>
+      <c r="I6" s="12">
         <f>fijos!$E$8</f>
-        <v>2381607.73</v>
-      </c>
-      <c r="J6" s="11">
+        <v>2393705.2199999997</v>
+      </c>
+      <c r="J6" s="12">
         <f>fijos!$E$8</f>
-        <v>2381607.73</v>
-      </c>
-      <c r="K6" s="11">
+        <v>2393705.2199999997</v>
+      </c>
+      <c r="K6" s="12">
         <f>fijos!$E$8</f>
-        <v>2381607.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2393705.2199999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="15">
         <f>640000+594000</f>
         <v>1234000</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="15">
         <v>386993.60000000003</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="15">
         <v>0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="15">
         <v>386993.60000000003</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="19">
         <f>SUM(F5:F6)+F7-F8-$C$3</f>
         <v>-35441.879999999997</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="19">
         <f>SUM(G5:G6)+G7-G8-$B$4</f>
-        <v>-717963.56000000052</v>
-      </c>
-      <c r="H9" s="15">
+        <v>-503623.80000000075</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" ref="H9:K9" si="0">SUM(H5:H6)+H7-H8-$B$4</f>
-        <v>-332930.16999999993</v>
-      </c>
-      <c r="I9" s="15">
+        <v>-256314.6799999997</v>
+      </c>
+      <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>54063.429999999702</v>
-      </c>
-      <c r="J9" s="15">
+        <v>130678.91999999993</v>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>-332930.16999999993</v>
-      </c>
-      <c r="K9" s="15">
+        <v>-256314.6799999997</v>
+      </c>
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
-        <v>54063.429999999702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130678.91999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f>-F9</f>
         <v>35441.879999999997</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" ref="G10:K10" si="1">F10-G9</f>
-        <v>753405.44000000053</v>
-      </c>
-      <c r="H10" s="3">
+        <v>539065.68000000075</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>1086335.6100000003</v>
-      </c>
-      <c r="I10" s="3">
+        <v>795380.36000000045</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>1032272.1800000006</v>
-      </c>
-      <c r="J10" s="3">
+        <v>664701.44000000053</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>1365202.3500000006</v>
-      </c>
-      <c r="K10" s="3">
+        <v>921016.12000000023</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>1311138.9200000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>790337.2000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10:K10">
@@ -4321,4 +4431,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792DDB6-E9AE-D040-A12A-C7743CA99613}">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="85">
+        <v>4450000</v>
+      </c>
+      <c r="F3" s="79"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="85">
+        <v>4500000</v>
+      </c>
+      <c r="F4" s="80"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="85">
+        <v>4590000</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="85">
+        <v>4600000</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="85">
+        <v>4600000</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="85">
+        <v>4650000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="80"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="80"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="82"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="81"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D22" s="81"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F11">
+    <sortCondition ref="E3:E11"/>
+  </sortState>
+  <conditionalFormatting sqref="E3:E11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{EAA192FE-32DA-5A4E-A595-C0080F162864}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FP.xlsx
+++ b/FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmerinomora/Documents/repos/project_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E030D5-EFB1-C74E-999F-4A7CAD7BE856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E044C8E-5A7B-094F-A872-F489409A5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="fijos" sheetId="138" r:id="rId1"/>
     <sheet name="Deudas urg" sheetId="169" r:id="rId2"/>
     <sheet name="proyec 2023-2" sheetId="170" r:id="rId3"/>
-    <sheet name="iPhone 16 pro" sheetId="171" r:id="rId4"/>
+    <sheet name="Negocios iPhone" sheetId="171" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fijos!$G$11:$J$28</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>Movistar money</t>
   </si>
@@ -199,9 +199,6 @@
     <t>DEUDAS 30 DE ENERO</t>
   </si>
   <si>
-    <t>Pago crédito Jamar</t>
-  </si>
-  <si>
     <t>LISTA DE COMPRAS SVA</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Adicionales</t>
-  </si>
-  <si>
     <t>PhoneKilla</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>Case, vidrio templado</t>
-  </si>
-  <si>
     <t>iPhone Cell Quilla</t>
   </si>
   <si>
@@ -317,6 +308,27 @@
   </si>
   <si>
     <t>https://www.instagram.com/mobilestore84/</t>
+  </si>
+  <si>
+    <t>Equis Mobile</t>
+  </si>
+  <si>
+    <t>Multiphone de la costa</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/multiphonedelacostasas/</t>
+  </si>
+  <si>
+    <t>Cra 38 # 69c -04</t>
+  </si>
+  <si>
+    <t>Virtual, envíos nacionales</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/equismobile.co/</t>
+  </si>
+  <si>
+    <t>Liquidación crédito Jamar</t>
   </si>
 </sst>
 </file>
@@ -773,7 +785,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,12 +841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,25 +866,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,9 +898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,24 +928,12 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -969,6 +942,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -2399,10 +2402,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF5BD5-D5C1-604E-91D5-89DBC9CAD258}">
   <dimension ref="A3:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="M49" sqref="M49"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2424,131 +2427,131 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36">
+      <c r="B4" s="33"/>
+      <c r="C4" s="77">
         <v>2024</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="K4" s="34"/>
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="35"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="K5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="33"/>
+      <c r="D6" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="39">
         <v>2424380</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="40">
         <f>SUMIF(H12:H27,15,J12:J27)</f>
         <v>3022122.1</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="41">
         <f>D7-SUMIF(H12:H27,15,J12:J27)</f>
         <v>-597742.10000000009</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="K7" s="39"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="39">
         <v>2424380</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <f>SUMIF(H12:H27,30,J12:J27)</f>
         <v>2393705.2199999997</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="41">
         <f>D8-SUMIF(H12:H27,30,J12:J27)</f>
         <v>30674.780000000261</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="45">
         <f>D8+D7</f>
         <v>4848760</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="45">
         <f>F8+F7</f>
         <v>-567067.31999999983</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
+      <c r="B10" s="33"/>
       <c r="E10" s="4"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="2:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="G11" s="54" t="s">
+      <c r="B11" s="33"/>
+      <c r="G11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="G12" s="55" t="s">
+      <c r="B12" s="33"/>
+      <c r="G12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="7">
@@ -2557,25 +2560,25 @@
       <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="48">
         <v>1500000</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="49">
         <f t="shared" ref="K12:K27" si="0">J12/$J$28</f>
         <v>0.27696599455094884</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="G13" s="55" t="s">
+      <c r="B13" s="33"/>
+      <c r="G13" s="47" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="7">
@@ -2584,29 +2587,29 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="48">
         <v>573161</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="49">
         <f t="shared" si="0"/>
         <v>0.1058307376018776</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="59" t="s">
+      <c r="O13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="Q13" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="G14" s="55" t="s">
+      <c r="B14" s="33"/>
+      <c r="G14" s="47" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="7">
@@ -2615,17 +2618,17 @@
       <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="48">
         <v>469369.16</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="49">
         <f t="shared" si="0"/>
         <v>8.6666197473962286E-2</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="60">
+      <c r="O14" s="51">
         <v>8500</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -2636,8 +2639,8 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="G15" s="55" t="s">
+      <c r="B15" s="33"/>
+      <c r="G15" s="47" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="7">
@@ -2646,17 +2649,17 @@
       <c r="I15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="48">
         <v>426392</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="49">
         <f t="shared" si="0"/>
         <v>7.8730722899045452E-2</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="60">
+      <c r="O15" s="51">
         <v>10490</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2667,8 +2670,8 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="G16" s="55" t="s">
+      <c r="B16" s="33"/>
+      <c r="G16" s="47" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="7">
@@ -2677,17 +2680,17 @@
       <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="48">
         <v>418379.1</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="49">
         <f t="shared" si="0"/>
         <v>7.7251189020553918E-2</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="60">
+      <c r="O16" s="51">
         <v>32750</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2698,8 +2701,8 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
-      <c r="G17" s="55" t="s">
+      <c r="B17" s="33"/>
+      <c r="G17" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="7">
@@ -2708,17 +2711,17 @@
       <c r="I17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="48">
         <v>404070.5</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="49">
         <f t="shared" si="0"/>
         <v>7.460919193413279E-2</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="60">
+      <c r="O17" s="51">
         <f>46900-15000</f>
         <v>31900</v>
       </c>
@@ -2730,9 +2733,9 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="D18" s="61"/>
-      <c r="G18" s="55" t="s">
+      <c r="B18" s="33"/>
+      <c r="D18" s="52"/>
+      <c r="G18" s="47" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="7">
@@ -2741,16 +2744,16 @@
       <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="48">
         <v>385849.56</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="49">
         <f t="shared" si="0"/>
         <v>7.1244804754964003E-2</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="O18" s="60">
+      <c r="O18" s="51">
         <v>20000</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2761,8 +2764,8 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="G19" s="55" t="s">
+      <c r="B19" s="33"/>
+      <c r="G19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="7">
@@ -2771,17 +2774,17 @@
       <c r="I19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="48">
         <v>338699</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="49">
         <f t="shared" si="0"/>
         <v>6.253873692560788E-2</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="60">
+      <c r="O19" s="51">
         <v>24900</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -2792,9 +2795,9 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
+      <c r="B20" s="33"/>
       <c r="E20" s="22"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="47" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="7">
@@ -2803,21 +2806,21 @@
       <c r="I20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="48">
         <v>338652</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="49">
         <f t="shared" si="0"/>
         <v>6.2530058657778623E-2</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="60"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="G21" s="55" t="s">
+      <c r="B21" s="33"/>
+      <c r="G21" s="47" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="7">
@@ -2826,21 +2829,21 @@
       <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="48">
         <v>248312</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="49">
         <f t="shared" si="0"/>
         <v>4.5849320025956805E-2</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="60"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="G22" s="55" t="s">
+      <c r="B22" s="33"/>
+      <c r="G22" s="47" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="7">
@@ -2849,21 +2852,21 @@
       <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="48">
         <v>184403</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="49">
         <f t="shared" si="0"/>
         <v>3.4048906862119081E-2</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="60"/>
+      <c r="O22" s="51"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="G23" s="55" t="s">
+      <c r="B23" s="33"/>
+      <c r="G23" s="47" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="7">
@@ -2872,292 +2875,292 @@
       <c r="I23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="48">
         <f>SUM($O$14:$O$20)</f>
         <v>128540</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="49">
         <f t="shared" si="0"/>
         <v>2.3734139293052642E-2</v>
       </c>
-      <c r="O23" s="60"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="G24" s="55"/>
+      <c r="B24" s="33"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57">
+      <c r="J24" s="48"/>
+      <c r="K24" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="60"/>
+      <c r="O24" s="51"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="33"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57">
+      <c r="J25" s="48"/>
+      <c r="K25" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="60"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="35"/>
-      <c r="G26" s="55"/>
+      <c r="B26" s="33"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57">
+      <c r="J26" s="48"/>
+      <c r="K26" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="60"/>
+      <c r="O26" s="51"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="35"/>
-      <c r="G27" s="55"/>
+      <c r="B27" s="33"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57">
+      <c r="J27" s="48"/>
+      <c r="K27" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="60"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="35"/>
+      <c r="B28" s="33"/>
       <c r="G28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="53">
         <f>SUM(J12:J27)</f>
         <v>5415827.3200000003</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="O28" s="60"/>
+      <c r="K28" s="34"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="K29" s="39"/>
+      <c r="B29" s="33"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B30" s="35"/>
-      <c r="K30" s="39"/>
+      <c r="B30" s="33"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="K31" s="39"/>
+      <c r="B31" s="33"/>
+      <c r="K31" s="34"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66">
+      <c r="I32" s="56"/>
+      <c r="J32" s="57">
         <f>D9-J28</f>
         <v>-567067.3200000003</v>
       </c>
-      <c r="K32" s="67"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="62"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="62"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="53"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D35" s="68"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="62"/>
+      <c r="D35" s="59"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="62"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="62"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C38" s="69">
+      <c r="C38" s="60">
         <v>45350</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="60">
         <v>45382</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="60">
         <v>45412</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="60">
         <v>45443</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="60">
         <v>45473</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="60">
         <v>45504</v>
       </c>
-      <c r="I38" s="69">
+      <c r="I38" s="60">
         <v>45535</v>
       </c>
-      <c r="J38" s="69">
+      <c r="J38" s="60">
         <v>45565</v>
       </c>
-      <c r="K38" s="69">
+      <c r="K38" s="60">
         <v>45595</v>
       </c>
-      <c r="L38" s="69">
+      <c r="L38" s="60">
         <v>45626</v>
       </c>
-      <c r="M38" s="69">
+      <c r="M38" s="60">
         <v>45656</v>
       </c>
-      <c r="N38" s="69"/>
+      <c r="N38" s="60"/>
     </row>
     <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="54" t="s">
+      <c r="I39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="54" t="s">
+      <c r="J39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="54" t="s">
+      <c r="K39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="54" t="s">
+      <c r="L39" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="54"/>
+      <c r="M39" s="46"/>
       <c r="N39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="61">
         <v>20766340</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="61">
         <v>20572804</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="61">
         <v>20596918</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="61">
         <v>20570000</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="61">
         <v>20140000</v>
       </c>
-      <c r="H40" s="70">
+      <c r="H40" s="61">
         <v>20250000</v>
       </c>
-      <c r="I40" s="70">
+      <c r="I40" s="61">
         <v>20170000</v>
       </c>
-      <c r="J40" s="70">
+      <c r="J40" s="61">
         <v>20080000</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="62">
         <v>20050000</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="62">
         <v>19870000</v>
       </c>
-      <c r="M40" s="71">
+      <c r="M40" s="62">
         <v>19780000</v>
       </c>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="61">
         <v>11851059.619999999</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="61">
         <v>11341160.960000001</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="61">
         <v>11132644.26</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="61">
         <v>10900000</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="61">
         <v>10680000</v>
       </c>
-      <c r="H41" s="70">
+      <c r="H41" s="61">
         <v>10460000</v>
       </c>
-      <c r="I41" s="70">
+      <c r="I41" s="61">
         <v>10240000</v>
       </c>
-      <c r="J41" s="70">
+      <c r="J41" s="61">
         <v>10000000</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="61">
         <v>9770000</v>
       </c>
-      <c r="L41" s="70">
+      <c r="L41" s="61">
         <v>9500000</v>
       </c>
-      <c r="M41" s="70">
+      <c r="M41" s="61">
         <v>9250000</v>
       </c>
     </row>
@@ -3165,40 +3168,40 @@
       <c r="A42" s="22">
         <v>10000000</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="61">
         <v>9680000</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="61">
         <v>9800000</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="61">
         <v>10290000</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="61">
         <v>12600000</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="61">
         <v>10500000</v>
       </c>
-      <c r="H42" s="70">
+      <c r="H42" s="61">
         <v>10900000</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I42" s="61">
         <v>13750000</v>
       </c>
-      <c r="J42" s="70">
+      <c r="J42" s="61">
         <v>11400000</v>
       </c>
-      <c r="K42" s="71">
+      <c r="K42" s="62">
         <v>10320000</v>
       </c>
-      <c r="L42" s="71">
+      <c r="L42" s="62">
         <v>9910000</v>
       </c>
-      <c r="M42" s="70">
+      <c r="M42" s="61">
         <v>10300000</v>
       </c>
       <c r="N42" s="4">
@@ -3210,40 +3213,40 @@
       <c r="A43" s="22">
         <v>11600000</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="61">
         <v>10049237</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="61">
         <v>11600000</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="61">
         <v>11760773</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="61">
         <v>10990000</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="61">
         <v>10750000</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="61">
         <v>10520000</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="61">
         <v>10290000</v>
       </c>
-      <c r="J43" s="70">
+      <c r="J43" s="61">
         <v>10080000</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="61">
         <v>11330000</v>
       </c>
-      <c r="L43" s="70">
+      <c r="L43" s="61">
         <v>11190000</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N43" s="4">
@@ -3255,40 +3258,40 @@
       <c r="A44" s="22">
         <v>7200000</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="61">
         <v>7246555</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="61">
         <v>7109620</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="61">
         <v>7107040</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="61">
         <v>6500000</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="61">
         <v>6350000</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="61">
         <v>6240000</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="61">
         <v>6130000</v>
       </c>
-      <c r="J44" s="70">
+      <c r="J44" s="61">
         <v>6020000</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="61">
         <v>6430000</v>
       </c>
-      <c r="L44" s="70">
+      <c r="L44" s="61">
         <v>6500000</v>
       </c>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N44" s="4">
@@ -3301,40 +3304,40 @@
       <c r="A45" s="22">
         <v>6500000</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="61">
         <v>6494703.7800000003</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="61">
         <v>6370000</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="61">
         <v>6673872.0899999999</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="61">
         <v>5880000</v>
       </c>
-      <c r="G45" s="70">
+      <c r="G45" s="61">
         <v>5630000</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="61">
         <v>5390000</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="61">
         <v>5160000</v>
       </c>
-      <c r="J45" s="70">
+      <c r="J45" s="61">
         <v>6230000</v>
       </c>
-      <c r="K45" s="70">
+      <c r="K45" s="61">
         <v>5980000</v>
       </c>
-      <c r="L45" s="70">
+      <c r="L45" s="61">
         <v>5660000</v>
       </c>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N45" s="4">
@@ -3346,40 +3349,40 @@
       <c r="A46" s="22">
         <v>6120000</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="61">
         <v>4620000</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="61">
         <v>5600000</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="61">
         <v>5870000</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="61">
         <v>5730000</v>
       </c>
-      <c r="G46" s="70">
+      <c r="G46" s="61">
         <v>5540000</v>
       </c>
-      <c r="H46" s="70">
+      <c r="H46" s="61">
         <v>5100000</v>
       </c>
-      <c r="I46" s="70">
+      <c r="I46" s="61">
         <v>6120000</v>
       </c>
-      <c r="J46" s="70">
+      <c r="J46" s="61">
         <v>6120000</v>
       </c>
-      <c r="K46" s="70">
+      <c r="K46" s="61">
         <v>6120000</v>
       </c>
-      <c r="L46" s="70">
+      <c r="L46" s="61">
         <v>5590000</v>
       </c>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N46" s="4">
@@ -3389,40 +3392,40 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="61">
         <v>3886674.68</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="61">
         <v>3666564.54</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="61">
         <v>3526852.75</v>
       </c>
-      <c r="F47" s="70">
+      <c r="F47" s="61">
         <v>3383140.75</v>
       </c>
-      <c r="G47" s="70">
+      <c r="G47" s="61">
         <v>3238542.87</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="61">
         <v>3073093.11</v>
       </c>
-      <c r="I47" s="70">
+      <c r="I47" s="61">
         <v>2904606</v>
       </c>
-      <c r="J47" s="70">
+      <c r="J47" s="61">
         <v>2731230.41</v>
       </c>
-      <c r="K47" s="70">
+      <c r="K47" s="61">
         <v>2550568.7400000002</v>
       </c>
-      <c r="L47" s="70">
+      <c r="L47" s="61">
         <v>2366947.98</v>
       </c>
-      <c r="M47" s="70">
+      <c r="M47" s="61">
         <v>2176393</v>
       </c>
       <c r="N47" s="4"/>
@@ -3431,40 +3434,40 @@
       <c r="A48" s="22">
         <v>3500000</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="61">
         <v>3130000</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="61">
         <v>3200000</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="61">
         <v>3500000</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="61">
         <v>3700000</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="61">
         <v>3500000</v>
       </c>
-      <c r="H48" s="70">
+      <c r="H48" s="61">
         <v>3600000</v>
       </c>
-      <c r="I48" s="70">
+      <c r="I48" s="61">
         <v>4050000</v>
       </c>
-      <c r="J48" s="70">
+      <c r="J48" s="61">
         <v>3300000</v>
       </c>
-      <c r="K48" s="71">
+      <c r="K48" s="62">
         <v>3280000</v>
       </c>
-      <c r="L48" s="71">
+      <c r="L48" s="62">
         <v>3270000</v>
       </c>
-      <c r="M48" s="71">
+      <c r="M48" s="62">
         <v>3900000</v>
       </c>
       <c r="N48" s="4">
@@ -3476,40 +3479,40 @@
       <c r="A49" s="22">
         <v>3000000</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="61">
         <v>2700000</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="61">
         <v>2500000</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="61">
         <v>2400000</v>
       </c>
-      <c r="F49" s="70">
+      <c r="F49" s="61">
         <v>2800000</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="61">
         <v>2490000</v>
       </c>
-      <c r="H49" s="70">
+      <c r="H49" s="61">
         <v>2400000</v>
       </c>
-      <c r="I49" s="70">
+      <c r="I49" s="61">
         <v>2210000</v>
       </c>
-      <c r="J49" s="70">
+      <c r="J49" s="61">
         <v>2900000</v>
       </c>
-      <c r="K49" s="71">
+      <c r="K49" s="62">
         <v>2830000</v>
       </c>
-      <c r="L49" s="71">
+      <c r="L49" s="62">
         <v>2830000</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="62">
         <v>2720000</v>
       </c>
       <c r="N49" s="4">
@@ -3519,102 +3522,102 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="61">
         <v>15000000</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="61">
         <v>15000000</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="61">
         <v>15000000</v>
       </c>
-      <c r="F50" s="70">
+      <c r="F50" s="61">
         <v>15000000</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="61">
         <v>23000000</v>
       </c>
-      <c r="H50" s="70">
+      <c r="H50" s="61">
         <v>23000000</v>
       </c>
-      <c r="I50" s="70">
+      <c r="I50" s="61">
         <v>23000000</v>
       </c>
-      <c r="J50" s="70">
+      <c r="J50" s="61">
         <v>23000000</v>
       </c>
-      <c r="K50" s="70">
+      <c r="K50" s="61">
         <v>23000000</v>
       </c>
-      <c r="L50" s="70">
+      <c r="L50" s="61">
         <v>23000000</v>
       </c>
-      <c r="M50" s="70">
+      <c r="M50" s="61">
         <v>23000000</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="65">
         <f t="shared" ref="C51:H51" si="1">SUM(C40:C50)</f>
         <v>95424570.080000013</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="65">
         <f t="shared" si="1"/>
         <v>96760149.500000015</v>
       </c>
-      <c r="E51" s="74">
+      <c r="E51" s="65">
         <f t="shared" si="1"/>
         <v>97858100.099999994</v>
       </c>
-      <c r="F51" s="74">
+      <c r="F51" s="65">
         <f t="shared" si="1"/>
         <v>98053140.75</v>
       </c>
-      <c r="G51" s="74">
+      <c r="G51" s="65">
         <f t="shared" si="1"/>
         <v>101818542.87</v>
       </c>
-      <c r="H51" s="74">
+      <c r="H51" s="65">
         <f t="shared" si="1"/>
         <v>100933093.11</v>
       </c>
-      <c r="I51" s="74">
+      <c r="I51" s="65">
         <f t="shared" ref="I51:J51" si="2">SUM(I40:I50)</f>
         <v>104024606</v>
       </c>
-      <c r="J51" s="74">
+      <c r="J51" s="65">
         <f t="shared" si="2"/>
         <v>101861230.41</v>
       </c>
-      <c r="K51" s="74">
+      <c r="K51" s="65">
         <f t="shared" ref="K51:M51" si="3">SUM(K40:K50)</f>
         <v>101660568.73999999</v>
       </c>
-      <c r="L51" s="74">
+      <c r="L51" s="65">
         <f t="shared" si="3"/>
         <v>99686947.980000004</v>
       </c>
-      <c r="M51" s="74">
+      <c r="M51" s="65">
         <f t="shared" si="3"/>
         <v>71126393</v>
       </c>
-      <c r="N51" s="75">
+      <c r="N51" s="66">
         <f>SUM(N40:N50)</f>
         <v>2060000</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B52" s="55"/>
+      <c r="B52" s="47"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B53" s="55"/>
+      <c r="B53" s="47"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -3625,120 +3628,120 @@
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B56" s="46"/>
-      <c r="C56" s="76"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="22"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="74"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C57" s="76"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="4"/>
-      <c r="F57" s="76"/>
+      <c r="F57" s="67"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C58" s="76"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="4"/>
-      <c r="F58" s="76"/>
+      <c r="F58" s="67"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C59" s="76"/>
-      <c r="D59" s="77"/>
-      <c r="F59" s="76"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="F59" s="67"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C60" s="78"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="4"/>
-      <c r="F60" s="78"/>
+      <c r="F60" s="69"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C61" s="78"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="4"/>
-      <c r="F61" s="78"/>
+      <c r="F61" s="69"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B62" s="46"/>
-      <c r="C62" s="74"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="74"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="65"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C64" s="4"/>
-      <c r="J64" s="46"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="46"/>
-      <c r="C65" s="62"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="53"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C75" s="36">
+      <c r="C75" s="77">
         <v>2024</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="38"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="82"/>
     </row>
     <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="44" t="s">
+      <c r="E77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D78" s="39">
         <f>2424380*1.09</f>
         <v>2642574.2000000002</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="40">
         <v>2980975.94</v>
       </c>
-      <c r="F78" s="49">
+      <c r="F78" s="41">
         <f>D78-E78</f>
         <v>-338401.73999999976</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D79" s="39">
         <f>2424380*1.09</f>
         <v>2642574.2000000002</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="43">
         <v>2385507.73</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="41">
         <f>D79-E79</f>
         <v>257066.4700000002</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="45">
         <f>D79+D78</f>
         <v>5285148.4000000004</v>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="45">
         <f>F79+F78</f>
         <v>-81335.269999999553</v>
       </c>
@@ -3810,7 +3813,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3828,264 +3831,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="84"/>
+      <c r="E1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="H1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="24"/>
+      <c r="F1" s="84"/>
+      <c r="H1" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26">
         <v>1500000</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
-        <v>51</v>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="H3" s="26">
+        <v>4000000</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26">
         <v>488379.1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="H4" s="28">
-        <v>10000000</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>53</v>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="H4" s="26">
+        <v>8000000</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26">
         <v>426392</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26">
         <v>338652</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26">
         <v>338699</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26">
         <v>529697.28000000003</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="30">
+      <c r="B23" s="28">
         <f>SUM(B3:B22)</f>
         <v>3621819.38</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <f>SUM(E3:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="28">
         <f>SUM(H3:H22)</f>
-        <v>10000000</v>
-      </c>
-      <c r="I23" s="31" t="s">
+        <v>12000000</v>
+      </c>
+      <c r="I23" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4116,7 +4121,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4150,7 +4155,7 @@
         <v>4848760</v>
       </c>
       <c r="C3" s="4">
-        <v>35441.879999999997</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>47</v>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="F9" s="19">
         <f>SUM(F5:F6)+F7-F8-$C$3</f>
-        <v>-35441.879999999997</v>
+        <v>0</v>
       </c>
       <c r="G9" s="19">
         <f>SUM(G5:G6)+G7-G8-$B$4</f>
@@ -4350,27 +4355,27 @@
       </c>
       <c r="F10" s="5">
         <f>-F9</f>
-        <v>35441.879999999997</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:K10" si="1">F10-G9</f>
-        <v>539065.68000000075</v>
+        <v>503623.80000000075</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>795380.36000000045</v>
+        <v>759938.48000000045</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>664701.44000000053</v>
+        <v>629259.56000000052</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>921016.12000000023</v>
+        <v>885574.24000000022</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>790337.2000000003</v>
+        <v>754895.3200000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -4435,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792DDB6-E9AE-D040-A12A-C7743CA99613}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4447,224 +4452,234 @@
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="72">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="72">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="72">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="81" t="s">
+      <c r="D6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="72">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="72">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="72">
+        <v>4630000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="72">
+        <v>4650000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="72"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="72"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="85">
-        <v>4450000</v>
-      </c>
-      <c r="F3" s="79"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="85">
-        <v>4500000</v>
-      </c>
-      <c r="F4" s="80"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="85">
-        <v>4590000</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="85">
-        <v>4600000</v>
-      </c>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="85">
-        <v>4600000</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="85">
-        <v>4650000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="80"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="80"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="80"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="81" t="s">
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C13" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="72"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="82"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
+      <c r="D14" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="81"/>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="81"/>
+      <c r="D20" s="70"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="81"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="81"/>
+      <c r="D22" s="70"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F11">
-    <sortCondition ref="E3:E11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E14">
+    <sortCondition ref="E3:E14"/>
   </sortState>
   <conditionalFormatting sqref="E3:E11">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4677,15 +4692,17 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{EAA192FE-32DA-5A4E-A595-C0080F162864}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FP.xlsx
+++ b/FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmerinomora/Documents/repos/project_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiscasta\Documents\1_repos\my_project_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E044C8E-5A7B-094F-A872-F489409A5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35EBA7-AA5A-4C20-966F-BFA2610304A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fijos" sheetId="138" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>Movistar money</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>Liquidación crédito Jamar</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>No hay color negro</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,7 @@
     <numFmt numFmtId="167" formatCode="0.00000%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -450,6 +456,12 @@
     <font>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -785,7 +797,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -946,6 +958,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,7 +1178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1329,7 +1342,7 @@
                   <c:v>99686947.980000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71126393</c:v>
+                  <c:v>71519393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,31 +2415,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF5BD5-D5C1-604E-91D5-89DBC9CAD258}">
   <dimension ref="A3:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2438,26 +2451,26 @@
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="77">
+      <c r="C4" s="78">
         <v>2024</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
       <c r="K4" s="34"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
       <c r="D6" s="35" t="s">
         <v>41</v>
@@ -2470,7 +2483,7 @@
       </c>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="38" t="s">
         <v>12</v>
@@ -2491,7 +2504,7 @@
       <c r="I7" s="42"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="38" t="s">
         <v>13</v>
@@ -2510,7 +2523,7 @@
       <c r="G8" s="4"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
@@ -2525,12 +2538,12 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="E10" s="4"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="G11" s="46" t="s">
         <v>2</v>
@@ -2549,7 +2562,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="G12" s="47" t="s">
         <v>16</v>
@@ -2570,13 +2583,13 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="76" t="s">
+      <c r="O12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="G13" s="47" t="s">
         <v>5</v>
@@ -2607,7 +2620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="G14" s="47" t="s">
         <v>4</v>
@@ -2638,7 +2651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="G15" s="47" t="s">
         <v>1</v>
@@ -2669,7 +2682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="G16" s="47" t="s">
         <v>17</v>
@@ -2700,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="G17" s="47" t="s">
         <v>6</v>
@@ -2732,7 +2745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="D18" s="52"/>
       <c r="G18" s="47" t="s">
@@ -2763,7 +2776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="G19" s="47" t="s">
         <v>8</v>
@@ -2794,7 +2807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="E20" s="22"/>
       <c r="G20" s="47" t="s">
@@ -2818,7 +2831,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="51"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="G21" s="47" t="s">
         <v>23</v>
@@ -2841,7 +2854,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="51"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="G22" s="47" t="s">
         <v>18</v>
@@ -2864,7 +2877,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="51"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="G23" s="47" t="s">
         <v>9</v>
@@ -2885,7 +2898,7 @@
       </c>
       <c r="O23" s="51"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
       <c r="G24" s="47"/>
       <c r="H24" s="7"/>
@@ -2897,7 +2910,7 @@
       </c>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="G25" s="47"/>
       <c r="H25" s="7"/>
@@ -2909,7 +2922,7 @@
       </c>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="G26" s="47"/>
       <c r="H26" s="7"/>
@@ -2921,7 +2934,7 @@
       </c>
       <c r="O26" s="51"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="G27" s="47"/>
       <c r="H27" s="7"/>
@@ -2933,7 +2946,7 @@
       </c>
       <c r="O27" s="51"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="G28" s="2" t="s">
         <v>7</v>
@@ -2945,26 +2958,26 @@
       <c r="K28" s="34"/>
       <c r="O28" s="51"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="K30" s="34"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="K31" s="34"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -2983,34 +2996,34 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="53"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="53"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D35" s="59"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" s="60">
         <v>45350</v>
       </c>
@@ -3046,7 +3059,7 @@
       </c>
       <c r="N38" s="60"/>
     </row>
-    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="47" t="s">
         <v>5</v>
@@ -3125,7 +3138,7 @@
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="47" t="s">
         <v>4</v>
@@ -3163,8 +3176,9 @@
       <c r="M41" s="61">
         <v>9250000</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>10000000</v>
       </c>
@@ -3202,14 +3216,14 @@
         <v>9910000</v>
       </c>
       <c r="M42" s="61">
-        <v>10300000</v>
+        <v>10460000</v>
       </c>
       <c r="N42" s="4">
         <f>A42-M42</f>
-        <v>-300000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-460000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>11600000</v>
       </c>
@@ -3254,7 +3268,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>7200000</v>
       </c>
@@ -3300,7 +3314,7 @@
       </c>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>6500000</v>
       </c>
@@ -3345,7 +3359,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>6120000</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="47" t="s">
         <v>0</v>
@@ -3430,7 +3444,7 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>3500000</v>
       </c>
@@ -3475,7 +3489,7 @@
         <v>-400000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>3000000</v>
       </c>
@@ -3513,14 +3527,14 @@
         <v>2830000</v>
       </c>
       <c r="M49" s="62">
-        <v>2720000</v>
+        <v>2953000</v>
       </c>
       <c r="N49" s="4">
         <f>A49-M49</f>
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="47" t="s">
         <v>26</v>
@@ -3559,7 +3573,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="64" t="s">
         <v>7</v>
       </c>
@@ -3605,92 +3619,92 @@
       </c>
       <c r="M51" s="65">
         <f t="shared" si="3"/>
-        <v>71126393</v>
+        <v>71519393</v>
       </c>
       <c r="N51" s="66">
         <f>SUM(N40:N50)</f>
-        <v>2060000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1667000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="47"/>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="47"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="38"/>
       <c r="C56" s="67"/>
       <c r="D56" s="22"/>
       <c r="E56" s="38"/>
       <c r="F56" s="65"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C57" s="67"/>
       <c r="D57" s="4"/>
       <c r="F57" s="67"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C58" s="67"/>
       <c r="D58" s="4"/>
       <c r="F58" s="67"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C59" s="67"/>
       <c r="D59" s="68"/>
       <c r="F59" s="67"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C60" s="69"/>
       <c r="D60" s="4"/>
       <c r="F60" s="69"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C61" s="69"/>
       <c r="D61" s="4"/>
       <c r="F61" s="69"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38"/>
       <c r="C62" s="65"/>
       <c r="E62" s="38"/>
       <c r="F62" s="65"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="J64" s="38"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="38"/>
       <c r="C65" s="53"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C75" s="77">
-        <v>2024</v>
-      </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C76" s="80"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="82"/>
-    </row>
-    <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="78">
+        <v>2025</v>
+      </c>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="80"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="81"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="83"/>
+    </row>
+    <row r="77" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="D77" s="35" t="s">
         <v>41</v>
       </c>
@@ -3701,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" s="38" t="s">
         <v>12</v>
       </c>
@@ -3717,7 +3731,7 @@
         <v>-338401.73999999976</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" s="38" t="s">
         <v>13</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>257066.4700000002</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="44" t="s">
         <v>14</v>
       </c>
@@ -3813,38 +3827,38 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="83" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="E1" s="83" t="s">
+      <c r="C1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="H1" s="83" t="s">
+      <c r="F1" s="85"/>
+      <c r="H1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="84"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I1" s="85"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="23" t="s">
         <v>25</v>
@@ -3865,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="26">
         <v>1500000</v>
@@ -3882,7 +3896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26">
         <v>488379.1</v>
@@ -3899,7 +3913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26">
         <v>426392</v>
@@ -3912,7 +3926,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26">
         <v>338652</v>
@@ -3925,7 +3939,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26">
         <v>338699</v>
@@ -3938,7 +3952,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26">
         <v>529697.28000000003</v>
@@ -3951,7 +3965,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -3960,7 +3974,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -3969,7 +3983,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -3978,7 +3992,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -3987,7 +4001,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -3996,7 +4010,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
@@ -4005,7 +4019,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
@@ -4014,7 +4028,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -4023,7 +4037,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="E17" s="26"/>
@@ -4031,7 +4045,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="E18" s="26"/>
@@ -4039,7 +4053,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="E19" s="26"/>
@@ -4047,7 +4061,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="E20" s="26"/>
@@ -4055,7 +4069,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="E21" s="26"/>
@@ -4063,7 +4077,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="E22" s="26"/>
@@ -4071,7 +4085,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <f>SUM(B3:B22)</f>
         <v>3621819.38</v>
@@ -4094,13 +4108,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
   </sheetData>
@@ -4121,24 +4135,24 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.44140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -4146,7 +4160,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4161,7 +4175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -4226,7 +4240,7 @@
         <v>3022122.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4257,7 +4271,7 @@
         <v>2393705.2199999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
@@ -4284,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
@@ -4312,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -4345,7 +4359,7 @@
         <v>130678.91999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="13"/>
       <c r="C10" s="20"/>
@@ -4378,49 +4392,49 @@
         <v>754895.3200000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
     </row>
@@ -4440,21 +4454,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792DDB6-E9AE-D040-A12A-C7743CA99613}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -4467,8 +4482,11 @@
       <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="70" t="s">
         <v>66</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>58</v>
       </c>
@@ -4495,8 +4513,11 @@
       <c r="E4" s="72">
         <v>4500000</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
         <v>56</v>
       </c>
@@ -4510,156 +4531,160 @@
         <v>4590000</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="72">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C7" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D7" s="70" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" s="72">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="72">
         <v>4600000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="72">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C9" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D9" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E9" s="72">
         <v>4630000</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="70" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D10" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E10" s="72">
         <v>4650000</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="70" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="72">
+        <v>4749000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C12" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="72"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="70" t="s">
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C13" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D13" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="70" t="s">
+      <c r="E13" s="72"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C14" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="72"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>91</v>
-      </c>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="71"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="71"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="71"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
       <c r="E18" s="71"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="70"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="70"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" s="70"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" s="70"/>
     </row>
   </sheetData>
@@ -4692,17 +4717,17 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{EAA192FE-32DA-5A4E-A595-C0080F162864}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FP.xlsx
+++ b/FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiscasta\Documents\1_repos\my_project_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmerinomora/Documents/repos/project_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35EBA7-AA5A-4C20-966F-BFA2610304A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296948C0-3CE0-E34B-81EE-FB6C9005EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fijos" sheetId="138" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Movistar money</t>
   </si>
@@ -226,36 +226,18 @@
     <t>Cra 57 # 99a – 65 Of. 405 Torre Sur Atlántico</t>
   </si>
   <si>
-    <t>Cll 93 # 43 - 135</t>
-  </si>
-  <si>
-    <t>iPhone al por mayor</t>
-  </si>
-  <si>
-    <t>Cra 46 # 86 - 62 piso 1 local 3</t>
-  </si>
-  <si>
     <t>Cll 93 # 46 - 26 local 1</t>
   </si>
   <si>
-    <t>Cellzone Store</t>
-  </si>
-  <si>
     <t>iPhoneBQ</t>
   </si>
   <si>
     <t>iPhone City Barranquilla</t>
   </si>
   <si>
-    <t>iPhone Store Barranquilla</t>
-  </si>
-  <si>
     <t>Cra 53 # 76 - 239 local 115A</t>
   </si>
   <si>
-    <t>Cll 91 # 46 esquina</t>
-  </si>
-  <si>
     <t>iPhone Quilla</t>
   </si>
   <si>
@@ -287,15 +269,6 @@
   </si>
   <si>
     <t>https://www.instagram.com/phonebq_/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/iphonealpormayor/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/cellzonestoree/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/iphonesstorebarranquilla/</t>
   </si>
   <si>
     <t>TC Rappi (10-ene)</t>
@@ -797,7 +770,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -950,9 +923,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="29" applyAlignment="1">
@@ -1178,7 +1148,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2415,31 +2385,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF5BD5-D5C1-604E-91D5-89DBC9CAD258}">
   <dimension ref="A3:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2451,26 +2421,26 @@
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="33"/>
-      <c r="C4" s="78">
+      <c r="C4" s="77">
         <v>2024</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="K4" s="34"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.15">
       <c r="B6" s="33"/>
       <c r="D6" s="35" t="s">
         <v>41</v>
@@ -2483,7 +2453,7 @@
       </c>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="33"/>
       <c r="C7" s="38" t="s">
         <v>12</v>
@@ -2504,7 +2474,7 @@
       <c r="I7" s="42"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="33"/>
       <c r="C8" s="38" t="s">
         <v>13</v>
@@ -2523,7 +2493,7 @@
       <c r="G8" s="4"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="33"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
@@ -2538,12 +2508,12 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="33"/>
       <c r="E10" s="4"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="33"/>
       <c r="G11" s="46" t="s">
         <v>2</v>
@@ -2562,7 +2532,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="33"/>
       <c r="G12" s="47" t="s">
         <v>16</v>
@@ -2583,13 +2553,13 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
       <c r="G13" s="47" t="s">
         <v>5</v>
@@ -2620,7 +2590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="33"/>
       <c r="G14" s="47" t="s">
         <v>4</v>
@@ -2651,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
       <c r="G15" s="47" t="s">
         <v>1</v>
@@ -2682,7 +2652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
       <c r="G16" s="47" t="s">
         <v>17</v>
@@ -2713,7 +2683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
       <c r="G17" s="47" t="s">
         <v>6</v>
@@ -2745,7 +2715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="D18" s="52"/>
       <c r="G18" s="47" t="s">
@@ -2776,7 +2746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
       <c r="G19" s="47" t="s">
         <v>8</v>
@@ -2807,7 +2777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
       <c r="E20" s="22"/>
       <c r="G20" s="47" t="s">
@@ -2831,7 +2801,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="51"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="33"/>
       <c r="G21" s="47" t="s">
         <v>23</v>
@@ -2854,7 +2824,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="51"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="33"/>
       <c r="G22" s="47" t="s">
         <v>18</v>
@@ -2877,7 +2847,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="51"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="33"/>
       <c r="G23" s="47" t="s">
         <v>9</v>
@@ -2898,7 +2868,7 @@
       </c>
       <c r="O23" s="51"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="33"/>
       <c r="G24" s="47"/>
       <c r="H24" s="7"/>
@@ -2910,7 +2880,7 @@
       </c>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="33"/>
       <c r="G25" s="47"/>
       <c r="H25" s="7"/>
@@ -2922,7 +2892,7 @@
       </c>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
       <c r="G26" s="47"/>
       <c r="H26" s="7"/>
@@ -2934,7 +2904,7 @@
       </c>
       <c r="O26" s="51"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="33"/>
       <c r="G27" s="47"/>
       <c r="H27" s="7"/>
@@ -2946,7 +2916,7 @@
       </c>
       <c r="O27" s="51"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="33"/>
       <c r="G28" s="2" t="s">
         <v>7</v>
@@ -2958,26 +2928,26 @@
       <c r="K28" s="34"/>
       <c r="O28" s="51"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="33"/>
       <c r="K30" s="34"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="33"/>
       <c r="K31" s="34"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -2996,34 +2966,34 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="53"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="53"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D35" s="59"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="60">
         <v>45350</v>
       </c>
@@ -3059,7 +3029,7 @@
       </c>
       <c r="N38" s="60"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="46" t="s">
         <v>2</v>
       </c>
@@ -3098,7 +3068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="B40" s="47" t="s">
         <v>5</v>
@@ -3138,7 +3108,7 @@
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
       <c r="B41" s="47" t="s">
         <v>4</v>
@@ -3178,7 +3148,7 @@
       </c>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="22">
         <v>10000000</v>
       </c>
@@ -3223,7 +3193,7 @@
         <v>-460000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="22">
         <v>11600000</v>
       </c>
@@ -3268,7 +3238,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="22">
         <v>7200000</v>
       </c>
@@ -3314,7 +3284,7 @@
       </c>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="22">
         <v>6500000</v>
       </c>
@@ -3359,7 +3329,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="22">
         <v>6120000</v>
       </c>
@@ -3404,7 +3374,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="47" t="s">
         <v>0</v>
@@ -3444,7 +3414,7 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="22">
         <v>3500000</v>
       </c>
@@ -3489,7 +3459,7 @@
         <v>-400000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="22">
         <v>3000000</v>
       </c>
@@ -3534,7 +3504,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="47" t="s">
         <v>26</v>
@@ -3573,7 +3543,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B51" s="64" t="s">
         <v>7</v>
       </c>
@@ -3626,85 +3596,85 @@
         <v>1667000</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B52" s="47"/>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B53" s="47"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C55" s="4"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B56" s="38"/>
       <c r="C56" s="67"/>
       <c r="D56" s="22"/>
       <c r="E56" s="38"/>
       <c r="F56" s="65"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C57" s="67"/>
       <c r="D57" s="4"/>
       <c r="F57" s="67"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C58" s="67"/>
       <c r="D58" s="4"/>
       <c r="F58" s="67"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C59" s="67"/>
       <c r="D59" s="68"/>
       <c r="F59" s="67"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C60" s="69"/>
       <c r="D60" s="4"/>
       <c r="F60" s="69"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C61" s="69"/>
       <c r="D61" s="4"/>
       <c r="F61" s="69"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B62" s="38"/>
       <c r="C62" s="65"/>
       <c r="E62" s="38"/>
       <c r="F62" s="65"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C64" s="4"/>
       <c r="J64" s="38"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="38"/>
       <c r="C65" s="53"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="78">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C75" s="77">
         <v>2025</v>
       </c>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="80"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="81"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="83"/>
-    </row>
-    <row r="77" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="82"/>
+    </row>
+    <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.15">
       <c r="D77" s="35" t="s">
         <v>41</v>
       </c>
@@ -3715,7 +3685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C78" s="38" t="s">
         <v>12</v>
       </c>
@@ -3731,7 +3701,7 @@
         <v>-338401.73999999976</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C79" s="38" t="s">
         <v>13</v>
       </c>
@@ -3747,7 +3717,7 @@
         <v>257066.4700000002</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C80" s="44" t="s">
         <v>14</v>
       </c>
@@ -3830,35 +3800,35 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="84" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="C1" s="84"/>
+      <c r="E1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="H1" s="84" t="s">
+      <c r="F1" s="84"/>
+      <c r="H1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="85"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="23" t="s">
         <v>25</v>
@@ -3879,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="26">
         <v>1500000</v>
@@ -3893,10 +3863,10 @@
         <v>4000000</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="26">
         <v>488379.1</v>
@@ -3913,7 +3883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="26">
         <v>426392</v>
@@ -3926,7 +3896,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="26">
         <v>338652</v>
@@ -3939,7 +3909,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="26">
         <v>338699</v>
@@ -3952,20 +3922,20 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="26">
         <v>529697.28000000003</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="H8" s="26"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -3974,7 +3944,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -3983,7 +3953,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -3992,7 +3962,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -4001,7 +3971,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -4010,7 +3980,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
@@ -4019,7 +3989,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
@@ -4028,7 +3998,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -4037,7 +4007,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="E17" s="26"/>
@@ -4045,7 +4015,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="E18" s="26"/>
@@ -4053,7 +4023,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="E19" s="26"/>
@@ -4061,7 +4031,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="E20" s="26"/>
@@ -4069,7 +4039,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="E21" s="26"/>
@@ -4077,7 +4047,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="E22" s="26"/>
@@ -4085,7 +4055,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="28">
         <f>SUM(B3:B22)</f>
         <v>3621819.38</v>
@@ -4108,13 +4078,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
     </row>
   </sheetData>
@@ -4134,25 +4104,25 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -4160,7 +4130,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4175,7 +4145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -4209,7 +4179,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -4240,7 +4210,7 @@
         <v>3022122.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4271,7 +4241,7 @@
         <v>2393705.2199999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
@@ -4298,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
@@ -4326,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -4359,7 +4329,7 @@
         <v>130678.91999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="13"/>
       <c r="C10" s="20"/>
@@ -4392,49 +4362,49 @@
         <v>754895.3200000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="C14" s="22"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
     </row>
@@ -4454,27 +4424,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792DDB6-E9AE-D040-A12A-C7743CA99613}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>57</v>
@@ -4483,29 +4453,29 @@
         <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" s="72">
         <v>4450000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="70" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>59</v>
@@ -4513,198 +4483,150 @@
       <c r="E4" s="72">
         <v>4500000</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="70" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="72">
         <v>4590000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E6" s="72">
         <v>4590000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E7" s="72">
         <v>4600000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E8" s="72">
         <v>4600000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="70" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E9" s="72">
         <v>4630000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="70" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10" s="72">
         <v>4650000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E11" s="72">
         <v>4749000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="72"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="71"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="70"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="70"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="70"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="70"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E14">
-    <sortCondition ref="E3:E14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E11">
+    <sortCondition ref="E3:E11"/>
   </sortState>
   <conditionalFormatting sqref="E3:E11">
     <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E14">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4722,12 +4644,9 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{4B7BF07B-3217-AA47-A251-343743BF8E3A}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{DC9DE8ED-AA33-1546-B308-9A44E881720C}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{E38A9406-7001-7549-8905-8D4C8082B05F}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FP.xlsx
+++ b/FP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmerinomora/Documents/repos/project_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiscasta\Documents\1_repos\my_project_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296948C0-3CE0-E34B-81EE-FB6C9005EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA48B9-561C-4AC1-B180-C97E1E5D31D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fijos" sheetId="138" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Movistar money</t>
   </si>
@@ -308,20 +308,27 @@
   </si>
   <si>
     <t>No hay color negro</t>
+  </si>
+  <si>
+    <t>iPhone World Barranquilla</t>
+  </si>
+  <si>
+    <t>CESANTIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -437,6 +444,10 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -738,7 +749,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -769,8 +780,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -956,8 +968,22 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="21" xfId="30" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="31">
     <cellStyle name="Bold text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Col header" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency [0] 2" xfId="26" xr:uid="{82F61AD7-C935-624E-B6F3-8F94A8A5767D}"/>
@@ -977,6 +1003,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="30" builtinId="4"/>
     <cellStyle name="Moneda [0]" xfId="10" builtinId="7"/>
     <cellStyle name="Money" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1175,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2391,25 +2418,25 @@
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2421,7 +2448,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
       <c r="C4" s="77">
         <v>2024</v>
@@ -2432,7 +2459,7 @@
       <c r="K4" s="34"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
       <c r="C5" s="80"/>
       <c r="D5" s="81"/>
@@ -2440,7 +2467,7 @@
       <c r="F5" s="82"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
       <c r="D6" s="35" t="s">
         <v>41</v>
@@ -2453,7 +2480,7 @@
       </c>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="38" t="s">
         <v>12</v>
@@ -2474,7 +2501,7 @@
       <c r="I7" s="42"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="38" t="s">
         <v>13</v>
@@ -2493,7 +2520,7 @@
       <c r="G8" s="4"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
@@ -2508,12 +2535,12 @@
       </c>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="E10" s="4"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="G11" s="46" t="s">
         <v>2</v>
@@ -2532,7 +2559,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="G12" s="47" t="s">
         <v>16</v>
@@ -2559,7 +2586,7 @@
       <c r="P12" s="76"/>
       <c r="Q12" s="76"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="G13" s="47" t="s">
         <v>5</v>
@@ -2590,7 +2617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="G14" s="47" t="s">
         <v>4</v>
@@ -2621,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="G15" s="47" t="s">
         <v>1</v>
@@ -2652,7 +2679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="G16" s="47" t="s">
         <v>17</v>
@@ -2683,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="G17" s="47" t="s">
         <v>6</v>
@@ -2715,7 +2742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="D18" s="52"/>
       <c r="G18" s="47" t="s">
@@ -2746,7 +2773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="G19" s="47" t="s">
         <v>8</v>
@@ -2777,7 +2804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="E20" s="22"/>
       <c r="G20" s="47" t="s">
@@ -2801,7 +2828,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="51"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="G21" s="47" t="s">
         <v>23</v>
@@ -2824,7 +2851,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="51"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="G22" s="47" t="s">
         <v>18</v>
@@ -2847,7 +2874,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="51"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="G23" s="47" t="s">
         <v>9</v>
@@ -2868,7 +2895,7 @@
       </c>
       <c r="O23" s="51"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
       <c r="G24" s="47"/>
       <c r="H24" s="7"/>
@@ -2880,7 +2907,7 @@
       </c>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="G25" s="47"/>
       <c r="H25" s="7"/>
@@ -2892,7 +2919,7 @@
       </c>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="G26" s="47"/>
       <c r="H26" s="7"/>
@@ -2904,7 +2931,7 @@
       </c>
       <c r="O26" s="51"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="G27" s="47"/>
       <c r="H27" s="7"/>
@@ -2916,7 +2943,7 @@
       </c>
       <c r="O27" s="51"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="G28" s="2" t="s">
         <v>7</v>
@@ -2928,26 +2955,26 @@
       <c r="K28" s="34"/>
       <c r="O28" s="51"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="K30" s="34"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="K31" s="34"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -2966,34 +2993,34 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="53"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="53"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D35" s="59"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" s="60">
         <v>45350</v>
       </c>
@@ -3029,7 +3056,7 @@
       </c>
       <c r="N38" s="60"/>
     </row>
-    <row r="39" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>2</v>
       </c>
@@ -3068,7 +3095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="47" t="s">
         <v>5</v>
@@ -3108,7 +3135,7 @@
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="47" t="s">
         <v>4</v>
@@ -3148,7 +3175,7 @@
       </c>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>10000000</v>
       </c>
@@ -3193,7 +3220,7 @@
         <v>-460000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>11600000</v>
       </c>
@@ -3238,7 +3265,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>7200000</v>
       </c>
@@ -3284,7 +3311,7 @@
       </c>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>6500000</v>
       </c>
@@ -3329,7 +3356,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>6120000</v>
       </c>
@@ -3374,7 +3401,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="47" t="s">
         <v>0</v>
@@ -3414,7 +3441,7 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>3500000</v>
       </c>
@@ -3459,7 +3486,7 @@
         <v>-400000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>3000000</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="47" t="s">
         <v>26</v>
@@ -3543,7 +3570,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="64" t="s">
         <v>7</v>
       </c>
@@ -3596,71 +3623,71 @@
         <v>1667000</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="47"/>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="47"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="38"/>
       <c r="C56" s="67"/>
       <c r="D56" s="22"/>
       <c r="E56" s="38"/>
       <c r="F56" s="65"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C57" s="67"/>
       <c r="D57" s="4"/>
       <c r="F57" s="67"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C58" s="67"/>
       <c r="D58" s="4"/>
       <c r="F58" s="67"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C59" s="67"/>
       <c r="D59" s="68"/>
       <c r="F59" s="67"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C60" s="69"/>
       <c r="D60" s="4"/>
       <c r="F60" s="69"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C61" s="69"/>
       <c r="D61" s="4"/>
       <c r="F61" s="69"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38"/>
       <c r="C62" s="65"/>
       <c r="E62" s="38"/>
       <c r="F62" s="65"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="J64" s="38"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="38"/>
       <c r="C65" s="53"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C75" s="77">
         <v>2025</v>
       </c>
@@ -3668,13 +3695,13 @@
       <c r="E75" s="78"/>
       <c r="F75" s="79"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C76" s="80"/>
       <c r="D76" s="81"/>
       <c r="E76" s="81"/>
       <c r="F76" s="82"/>
     </row>
-    <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="D77" s="35" t="s">
         <v>41</v>
       </c>
@@ -3685,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" s="38" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3728,7 @@
         <v>-338401.73999999976</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" s="38" t="s">
         <v>13</v>
       </c>
@@ -3717,7 +3744,7 @@
         <v>257066.4700000002</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C80" s="44" t="s">
         <v>14</v>
       </c>
@@ -3800,21 +3827,21 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="83" t="s">
         <v>49</v>
       </c>
@@ -3828,7 +3855,7 @@
       </c>
       <c r="I1" s="84"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="23" t="s">
         <v>25</v>
@@ -3849,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="26">
         <v>1500000</v>
@@ -3866,7 +3893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26">
         <v>488379.1</v>
@@ -3883,7 +3910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26">
         <v>426392</v>
@@ -3896,7 +3923,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26">
         <v>338652</v>
@@ -3909,7 +3936,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26">
         <v>338699</v>
@@ -3922,7 +3949,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26">
         <v>529697.28000000003</v>
@@ -3935,7 +3962,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -3944,7 +3971,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -3953,7 +3980,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -3962,7 +3989,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -3971,7 +3998,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -3980,7 +4007,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
@@ -3989,7 +4016,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
@@ -3998,7 +4025,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -4007,7 +4034,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="E17" s="26"/>
@@ -4015,7 +4042,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="E18" s="26"/>
@@ -4023,7 +4050,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="E19" s="26"/>
@@ -4031,7 +4058,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="E20" s="26"/>
@@ -4039,7 +4066,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="E21" s="26"/>
@@ -4047,7 +4074,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="E22" s="26"/>
@@ -4055,7 +4082,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <f>SUM(B3:B22)</f>
         <v>3621819.38</v>
@@ -4078,13 +4105,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
   </sheetData>
@@ -4102,27 +4129,29 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.44140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -4130,7 +4159,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4145,7 +4174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -4179,7 +4208,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -4210,7 +4239,7 @@
         <v>3022122.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4241,7 +4270,7 @@
         <v>2393705.2199999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
@@ -4268,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
@@ -4280,8 +4309,8 @@
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f>640000+594000</f>
-        <v>1234000</v>
+        <f>640000+575000</f>
+        <v>1215000</v>
       </c>
       <c r="H8" s="15">
         <v>386993.60000000003</v>
@@ -4296,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
@@ -4310,7 +4339,7 @@
       </c>
       <c r="G9" s="19">
         <f>SUM(G5:G6)+G7-G8-$B$4</f>
-        <v>-503623.80000000075</v>
+        <v>-484623.80000000075</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" ref="H9:K9" si="0">SUM(H5:H6)+H7-H8-$B$4</f>
@@ -4329,7 +4358,7 @@
         <v>130678.91999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="13"/>
       <c r="C10" s="20"/>
@@ -4343,70 +4372,160 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:K10" si="1">F10-G9</f>
-        <v>503623.80000000075</v>
+        <v>484623.80000000075</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>759938.48000000045</v>
+        <v>740938.48000000045</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>629259.56000000052</v>
+        <v>610259.56000000052</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>885574.24000000022</v>
+        <v>866574.24000000022</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>754895.3200000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>735895.3200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" s="85">
+        <f>3888000*1.1028</f>
+        <v>4287686.4000000004</v>
+      </c>
+      <c r="F17" s="86">
+        <f>E17/360</f>
+        <v>11910.240000000002</v>
+      </c>
+      <c r="G17" s="87">
+        <f>F17*84</f>
+        <v>1000460.1600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" s="88">
+        <v>4953000</v>
+      </c>
+      <c r="F18" s="89">
+        <f>E18/360</f>
+        <v>13758.333333333334</v>
+      </c>
+      <c r="G18" s="90">
+        <f>F18*276</f>
+        <v>3797300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" s="91"/>
+      <c r="F20" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="95">
+        <f>G18+G17</f>
+        <v>4797760.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98">
+        <f>G20*0.12</f>
+        <v>575731.21920000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="85">
+        <f>3888000*1.1028</f>
+        <v>4287686.4000000004</v>
+      </c>
+      <c r="F25" s="86">
+        <f>E25/12</f>
+        <v>357307.2</v>
+      </c>
+      <c r="G25" s="87">
+        <f>F25*3</f>
+        <v>1071921.6000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="88">
+        <v>4953000</v>
+      </c>
+      <c r="F26" s="89">
+        <f>E26/12</f>
+        <v>412750</v>
+      </c>
+      <c r="G26" s="90">
+        <f>F26*9</f>
+        <v>3714750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="91"/>
+      <c r="F28" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="95">
+        <f>G26+G25</f>
+        <v>4786671.5999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98">
+        <f>G28*0.12</f>
+        <v>574400.59199999995</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10:K10">
@@ -4418,7 +4537,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4427,19 +4546,19 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
@@ -4456,7 +4575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="70" t="s">
         <v>62</v>
       </c>
@@ -4470,163 +4589,167 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C5" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E5" s="72">
         <v>4500000</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F5" s="75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="70" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D6" s="70" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="72">
-        <v>4590000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="72">
         <v>4590000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="72">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C8" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D8" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" s="72">
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>71</v>
       </c>
       <c r="E8" s="72">
         <v>4600000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="72">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C10" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D10" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E10" s="72">
         <v>4630000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="70" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E11" s="72">
         <v>4650000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="70" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C12" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E12" s="72">
         <v>4749000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="D13" s="70"/>
       <c r="E13" s="71"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
       <c r="E14" s="71"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="71"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D16" s="70"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="70"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="70"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="70"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E11">
-    <sortCondition ref="E3:E11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F12">
+    <sortCondition ref="E3:E12"/>
   </sortState>
-  <conditionalFormatting sqref="E3:E11">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="E3:E17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4639,14 +4762,14 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{EAA192FE-32DA-5A4E-A595-C0080F162864}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{FD05C08A-9C69-2240-A3C4-1E49C8199068}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{611CBF2D-7DDB-8A4B-B053-13D6CC66E5B1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{60CA5EF5-94F5-2246-B7B2-B43366072A5D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A3DB8B58-8D1C-174C-93F1-30DDE44FAC4F}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{7BF8C512-095F-884F-96FF-69C7FCEEC822}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{8DD3BF46-B68C-734E-AEC5-6E0743E8A0A8}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{8F234F1F-0C19-594F-95DD-95F61AA07E50}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{1414D61A-BBF0-D140-BE1C-7289BFEA9CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
